--- a/Code/Results/Cases/Case_8_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24678805718557</v>
+        <v>24.44307359118704</v>
       </c>
       <c r="C2">
-        <v>19.79684940052508</v>
+        <v>18.84945595138836</v>
       </c>
       <c r="D2">
-        <v>9.442240316330984</v>
+        <v>10.02066305241336</v>
       </c>
       <c r="E2">
-        <v>30.67466357065959</v>
+        <v>29.10526702065993</v>
       </c>
       <c r="F2">
-        <v>63.54804827132347</v>
+        <v>63.03962927701833</v>
       </c>
       <c r="G2">
-        <v>2.010439868272769</v>
+        <v>2.074527469938671</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.089966362669392</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.037267292020123</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,34 +468,40 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21958043420728</v>
+        <v>22.75403469952843</v>
       </c>
       <c r="C3">
-        <v>18.26974872213662</v>
+        <v>17.53033396951019</v>
       </c>
       <c r="D3">
-        <v>8.914116238228157</v>
+        <v>9.477274155190834</v>
       </c>
       <c r="E3">
-        <v>28.2244039492688</v>
+        <v>27.02775996347093</v>
       </c>
       <c r="F3">
-        <v>59.22243557171265</v>
+        <v>59.07048019432784</v>
       </c>
       <c r="G3">
-        <v>2.029395341366887</v>
+        <v>2.084514762941586</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.711583836633365</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.666704839883651</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -509,34 +521,40 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.930789809534</v>
+        <v>21.65952378285824</v>
       </c>
       <c r="C4">
-        <v>17.30170589585188</v>
+        <v>16.68690558818472</v>
       </c>
       <c r="D4">
-        <v>8.588640760384001</v>
+        <v>9.126601439550928</v>
       </c>
       <c r="E4">
-        <v>26.67941584961203</v>
+        <v>25.68821643124625</v>
       </c>
       <c r="F4">
-        <v>56.51277687824792</v>
+        <v>56.50830951348823</v>
       </c>
       <c r="G4">
-        <v>2.041032923588916</v>
+        <v>2.090765124095499</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.473648940128331</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.509508808433992</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -556,34 +574,40 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.39372297482674</v>
+        <v>21.19839618377675</v>
       </c>
       <c r="C5">
-        <v>16.89888094117254</v>
+        <v>16.35017261237931</v>
       </c>
       <c r="D5">
-        <v>8.455562333510173</v>
+        <v>8.962248306382884</v>
       </c>
       <c r="E5">
-        <v>26.03828905836542</v>
+        <v>25.1250067760214</v>
       </c>
       <c r="F5">
-        <v>55.39410197988848</v>
+        <v>55.35697436933109</v>
       </c>
       <c r="G5">
-        <v>2.045788770045434</v>
+        <v>2.093373239817404</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.374520949779008</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.613255113535315</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -603,34 +627,40 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.30380541782452</v>
+        <v>21.12034009970148</v>
       </c>
       <c r="C6">
-        <v>16.83147007907164</v>
+        <v>16.31276175098225</v>
       </c>
       <c r="D6">
-        <v>8.43343485181971</v>
+        <v>8.913715193426158</v>
       </c>
       <c r="E6">
-        <v>25.93109875840167</v>
+        <v>25.02928931015711</v>
       </c>
       <c r="F6">
-        <v>55.20745322129684</v>
+        <v>55.07122712887607</v>
       </c>
       <c r="G6">
-        <v>2.046579647295397</v>
+        <v>2.093843404499031</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.357148475066212</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.635588437125068</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -650,34 +680,40 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92359577425717</v>
+        <v>21.65169548959532</v>
       </c>
       <c r="C7">
-        <v>17.29630786899273</v>
+        <v>16.73292013436325</v>
       </c>
       <c r="D7">
-        <v>8.5868479638106</v>
+        <v>9.067926423508622</v>
       </c>
       <c r="E7">
-        <v>26.67081769861645</v>
+        <v>25.67736305216642</v>
       </c>
       <c r="F7">
-        <v>56.49774957047094</v>
+        <v>56.24481937174074</v>
       </c>
       <c r="G7">
-        <v>2.041096991607672</v>
+        <v>2.090896024981767</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.470075046960208</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.524493452909088</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -697,34 +733,40 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.55643791326133</v>
+        <v>23.870143067299</v>
       </c>
       <c r="C8">
-        <v>19.27615912934608</v>
+        <v>18.46235242138411</v>
       </c>
       <c r="D8">
-        <v>9.260289089134478</v>
+        <v>9.765799130928215</v>
       </c>
       <c r="E8">
-        <v>29.83734108505769</v>
+        <v>28.39744764467337</v>
       </c>
       <c r="F8">
-        <v>62.06700749867034</v>
+        <v>61.38995501941691</v>
       </c>
       <c r="G8">
-        <v>2.016984953209485</v>
+        <v>2.078075537225312</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.957617360055809</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.908925381665187</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -744,34 +786,40 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.41370968656153</v>
+        <v>27.77635781228673</v>
       </c>
       <c r="C9">
-        <v>22.95616959896649</v>
+        <v>21.51752086636726</v>
       </c>
       <c r="D9">
-        <v>10.58149212437364</v>
+        <v>11.09435833615976</v>
       </c>
       <c r="E9">
-        <v>35.80129715655028</v>
+        <v>33.24354161310295</v>
       </c>
       <c r="F9">
-        <v>72.63218803581518</v>
+        <v>70.89697344570428</v>
       </c>
       <c r="G9">
-        <v>1.968923078333752</v>
+        <v>2.053570185398751</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.877518438033591</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.818003966742009</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -791,34 +839,40 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.87605203283832</v>
+        <v>30.36896984993525</v>
       </c>
       <c r="C10">
-        <v>25.60710150872071</v>
+        <v>23.60291155827736</v>
       </c>
       <c r="D10">
-        <v>11.57442240581359</v>
+        <v>11.73454473692673</v>
       </c>
       <c r="E10">
-        <v>40.1748490172909</v>
+        <v>35.62103610224544</v>
       </c>
       <c r="F10">
-        <v>80.54051721636908</v>
+        <v>76.20990935265392</v>
       </c>
       <c r="G10">
-        <v>1.931726294619023</v>
+        <v>2.036709757866656</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.482358605421413</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.449622519871673</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -838,34 +892,40 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.45422905916183</v>
+        <v>31.36121202343197</v>
       </c>
       <c r="C11">
-        <v>26.82484214780176</v>
+        <v>24.30366210427836</v>
       </c>
       <c r="D11">
-        <v>12.03904925477299</v>
+        <v>9.970562816033523</v>
       </c>
       <c r="E11">
-        <v>42.21059482593153</v>
+        <v>29.02521488677462</v>
       </c>
       <c r="F11">
-        <v>84.18346965236199</v>
+        <v>69.78476296936714</v>
       </c>
       <c r="G11">
-        <v>1.913929765371231</v>
+        <v>2.03570407727512</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.790747882991368</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.510909130059678</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -885,34 +945,40 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.05549049343355</v>
+        <v>31.68585877720369</v>
       </c>
       <c r="C12">
-        <v>27.29052468993865</v>
+        <v>24.44128593523203</v>
       </c>
       <c r="D12">
-        <v>12.21789564228058</v>
+        <v>8.470649040072542</v>
       </c>
       <c r="E12">
-        <v>42.99415990142951</v>
+        <v>23.0426619106675</v>
       </c>
       <c r="F12">
-        <v>85.57443696643972</v>
+        <v>63.59460163662632</v>
       </c>
       <c r="G12">
-        <v>1.907007552749045</v>
+        <v>2.037548408334782</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.512775492837027</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.456295562001463</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -932,34 +998,40 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.92577224411583</v>
+        <v>31.52803904234584</v>
       </c>
       <c r="C13">
-        <v>27.18997185068548</v>
+        <v>24.22003956114179</v>
       </c>
       <c r="D13">
-        <v>12.17922750502245</v>
+        <v>7.009883965657012</v>
       </c>
       <c r="E13">
-        <v>42.82471849117065</v>
+        <v>17.05336036085701</v>
       </c>
       <c r="F13">
-        <v>85.27421405460521</v>
+        <v>56.73539812628097</v>
       </c>
       <c r="G13">
-        <v>1.90850766548506</v>
+        <v>2.041798004963339</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.450362237943956</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.308155851271346</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -979,34 +1051,40 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.503599680102</v>
+        <v>31.20074615630609</v>
       </c>
       <c r="C14">
-        <v>26.86304268634484</v>
+        <v>23.91840789243268</v>
       </c>
       <c r="D14">
-        <v>12.05369738572334</v>
+        <v>6.025607134096393</v>
       </c>
       <c r="E14">
-        <v>42.27476186777458</v>
+        <v>12.91878041738623</v>
       </c>
       <c r="F14">
-        <v>84.29762506640796</v>
+        <v>51.49898527829699</v>
       </c>
       <c r="G14">
-        <v>1.913364344850408</v>
+        <v>2.045765259257151</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.201276089694248</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.16614545595082</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1026,34 +1104,40 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.24559565407764</v>
+        <v>31.01509405687257</v>
       </c>
       <c r="C15">
-        <v>26.66348472232198</v>
+        <v>23.77999269105106</v>
       </c>
       <c r="D15">
-        <v>11.97722265277049</v>
+        <v>5.778124340762592</v>
       </c>
       <c r="E15">
-        <v>41.93976813747312</v>
+        <v>11.90505057293832</v>
       </c>
       <c r="F15">
-        <v>83.70118603006244</v>
+        <v>49.98084492291337</v>
       </c>
       <c r="G15">
-        <v>1.916313299920919</v>
+        <v>2.047349627796285</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.37155626470092</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.109105430901421</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1073,34 +1157,40 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.77322494453298</v>
+        <v>29.98938299365462</v>
       </c>
       <c r="C16">
-        <v>25.52797788720428</v>
+        <v>23.00271204771266</v>
       </c>
       <c r="D16">
-        <v>11.5443983169956</v>
+        <v>5.728103560500506</v>
       </c>
       <c r="E16">
-        <v>40.04320168908147</v>
+        <v>11.57793924659197</v>
       </c>
       <c r="F16">
-        <v>80.30360017115548</v>
+        <v>48.56665406277664</v>
       </c>
       <c r="G16">
-        <v>1.932867294210722</v>
+        <v>2.053498711515744</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.055752869198356</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.877767251533557</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1120,34 +1210,40 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.87271381570726</v>
+        <v>29.36448092993919</v>
       </c>
       <c r="C17">
-        <v>24.83613507090051</v>
+        <v>22.55793443121987</v>
       </c>
       <c r="D17">
-        <v>11.28281053043283</v>
+        <v>6.19513540705</v>
       </c>
       <c r="E17">
-        <v>38.89516505701508</v>
+        <v>13.59355848671587</v>
       </c>
       <c r="F17">
-        <v>78.2313357347299</v>
+        <v>50.37157133274903</v>
       </c>
       <c r="G17">
-        <v>1.942763750988347</v>
+        <v>2.056209579269872</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.353811635908204</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.772518732282649</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1167,34 +1263,40 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.35481734302617</v>
+        <v>29.0326828153557</v>
       </c>
       <c r="C18">
-        <v>24.43910093995113</v>
+        <v>22.33313476896589</v>
       </c>
       <c r="D18">
-        <v>11.13348911491293</v>
+        <v>7.282784649532969</v>
       </c>
       <c r="E18">
-        <v>38.23872953363013</v>
+        <v>18.16992540045136</v>
       </c>
       <c r="F18">
-        <v>77.04173180354569</v>
+        <v>55.3707338003543</v>
       </c>
       <c r="G18">
-        <v>1.948377868415365</v>
+        <v>2.055887887705688</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.333293727927019</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.773529732633144</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,34 +1316,40 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.17939591197614</v>
+        <v>28.97345199471054</v>
       </c>
       <c r="C19">
-        <v>24.30475469442337</v>
+        <v>22.4033883500889</v>
       </c>
       <c r="D19">
-        <v>11.08310118995642</v>
+        <v>8.790375362995041</v>
       </c>
       <c r="E19">
-        <v>38.01699054411644</v>
+        <v>24.53208797344972</v>
       </c>
       <c r="F19">
-        <v>76.63917250456655</v>
+        <v>62.1806771869171</v>
       </c>
       <c r="G19">
-        <v>1.950266731702656</v>
+        <v>2.052752511625638</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.411514987705797</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.879578676368524</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1261,34 +1369,40 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.96854963280244</v>
+        <v>29.69820850587216</v>
       </c>
       <c r="C20">
-        <v>24.90967278290232</v>
+        <v>23.17917654727976</v>
       </c>
       <c r="D20">
-        <v>11.31053303980021</v>
+        <v>11.41151704201456</v>
       </c>
       <c r="E20">
-        <v>39.01693697066612</v>
+        <v>34.95363493126855</v>
       </c>
       <c r="F20">
-        <v>78.45164968891322</v>
+        <v>74.17869503357267</v>
       </c>
       <c r="G20">
-        <v>1.941718685537057</v>
+        <v>2.041462083656163</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.314225926561374</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.278525854025554</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1308,34 +1422,40 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.6274717944293</v>
+        <v>31.63458094084674</v>
       </c>
       <c r="C21">
-        <v>26.95891802727061</v>
+        <v>24.75784781552005</v>
       </c>
       <c r="D21">
-        <v>12.09047941382316</v>
+        <v>12.27927442675885</v>
       </c>
       <c r="E21">
-        <v>42.43589318647892</v>
+        <v>38.09980501401512</v>
       </c>
       <c r="F21">
-        <v>84.58409143282279</v>
+        <v>79.78419766314934</v>
       </c>
       <c r="G21">
-        <v>1.911943352712931</v>
+        <v>2.027249542232134</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.857352354950227</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.805519619189777</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1355,34 +1475,40 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38893267083115</v>
+        <v>32.85232260185697</v>
       </c>
       <c r="C22">
-        <v>28.32698059617297</v>
+        <v>25.7093163221756</v>
       </c>
       <c r="D22">
-        <v>12.61797675994057</v>
+        <v>12.77195792536501</v>
       </c>
       <c r="E22">
-        <v>44.7491161665681</v>
+        <v>39.65220401541557</v>
       </c>
       <c r="F22">
-        <v>88.66440359819417</v>
+        <v>83.08140148289172</v>
       </c>
       <c r="G22">
-        <v>1.891371730508755</v>
+        <v>2.018208876805866</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.187829086509634</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.140100061090803</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,34 +1528,40 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.44523670829629</v>
+        <v>32.20893271165753</v>
       </c>
       <c r="C23">
-        <v>27.59292849431206</v>
+        <v>25.16305894123705</v>
       </c>
       <c r="D23">
-        <v>12.3343483208511</v>
+        <v>12.56410863771151</v>
       </c>
       <c r="E23">
-        <v>43.50458967050593</v>
+        <v>38.83252030482961</v>
       </c>
       <c r="F23">
-        <v>86.47688851490064</v>
+        <v>81.55397815487034</v>
       </c>
       <c r="G23">
-        <v>1.902478127042289</v>
+        <v>2.022918405131028</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.014325094539056</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.96347957896903</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1449,34 +1581,40 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.92522304524128</v>
+        <v>29.68185813993916</v>
       </c>
       <c r="C24">
-        <v>24.87642435347673</v>
+        <v>23.11238178875517</v>
       </c>
       <c r="D24">
-        <v>11.29799643622048</v>
+        <v>11.66976099974378</v>
       </c>
       <c r="E24">
-        <v>38.96187313677655</v>
+        <v>35.63223609375809</v>
       </c>
       <c r="F24">
-        <v>78.35204073660913</v>
+        <v>75.24053863113274</v>
       </c>
       <c r="G24">
-        <v>1.942191390765354</v>
+        <v>2.04088703992831</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.351378196554124</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.293550467567776</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1496,34 +1634,40 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.12536297092025</v>
+        <v>26.76275660477796</v>
       </c>
       <c r="C25">
-        <v>21.97609435544717</v>
+        <v>20.79094544270774</v>
       </c>
       <c r="D25">
-        <v>10.22222143521088</v>
+        <v>10.65831984704363</v>
       </c>
       <c r="E25">
-        <v>34.20189188957374</v>
+        <v>31.97679880725834</v>
       </c>
       <c r="F25">
-        <v>69.79983567977006</v>
+        <v>68.04404505137312</v>
       </c>
       <c r="G25">
-        <v>1.982132171959193</v>
+        <v>2.060308407478158</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.628166126820007</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.571692568677724</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_8_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_0/res_line/loading_percent.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.44307359118704</v>
+        <v>13.17606616307731</v>
       </c>
       <c r="C2">
-        <v>18.84945595138836</v>
+        <v>7.437949852043538</v>
       </c>
       <c r="D2">
-        <v>10.02066305241336</v>
+        <v>2.817955889696813</v>
       </c>
       <c r="E2">
-        <v>29.10526702065993</v>
+        <v>4.68286913085535</v>
       </c>
       <c r="F2">
-        <v>63.03962927701833</v>
+        <v>45.28983511499318</v>
       </c>
       <c r="G2">
-        <v>2.074527469938671</v>
+        <v>2.169427264939894</v>
       </c>
       <c r="H2">
-        <v>3.089966362669392</v>
+        <v>4.918938535312271</v>
       </c>
       <c r="I2">
-        <v>3.037267292020123</v>
+        <v>5.552781683948353</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>31.83522731462135</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.574403303264908</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.68515567508415</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.37663000761913</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -480,43 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.75403469952843</v>
+        <v>12.42160090677149</v>
       </c>
       <c r="C3">
-        <v>17.53033396951019</v>
+        <v>7.000246700013244</v>
       </c>
       <c r="D3">
-        <v>9.477274155190834</v>
+        <v>2.830154488745834</v>
       </c>
       <c r="E3">
-        <v>27.02775996347093</v>
+        <v>4.518593133140382</v>
       </c>
       <c r="F3">
-        <v>59.07048019432784</v>
+        <v>43.80874731094075</v>
       </c>
       <c r="G3">
-        <v>2.084514762941586</v>
+        <v>2.175217529732933</v>
       </c>
       <c r="H3">
-        <v>2.711583836633365</v>
+        <v>5.202794239097274</v>
       </c>
       <c r="I3">
-        <v>2.666704839883651</v>
+        <v>5.789279069321565</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>30.96407826341639</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.464644338715519</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.10211760429731</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.182204476008822</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -533,43 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.65952378285824</v>
+        <v>11.93709125354466</v>
       </c>
       <c r="C4">
-        <v>16.68690558818472</v>
+        <v>6.726843973495944</v>
       </c>
       <c r="D4">
-        <v>9.126601439550928</v>
+        <v>2.836423294488264</v>
       </c>
       <c r="E4">
-        <v>25.68821643124625</v>
+        <v>4.414734246523651</v>
       </c>
       <c r="F4">
-        <v>56.50830951348823</v>
+        <v>42.86907852103264</v>
       </c>
       <c r="G4">
-        <v>2.090765124095499</v>
+        <v>2.178886047003021</v>
       </c>
       <c r="H4">
-        <v>2.473648940128331</v>
+        <v>5.382947573749769</v>
       </c>
       <c r="I4">
-        <v>2.509508808433992</v>
+        <v>5.939775645621434</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>30.41073478824639</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.394742859896044</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.73298411230097</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.060890055636256</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -586,43 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19839618377675</v>
+        <v>11.73358397154166</v>
       </c>
       <c r="C5">
-        <v>16.35017261237931</v>
+        <v>6.620213421354597</v>
       </c>
       <c r="D5">
-        <v>8.962248306382884</v>
+        <v>2.837217295429793</v>
       </c>
       <c r="E5">
-        <v>25.1250067760214</v>
+        <v>4.371847782255514</v>
       </c>
       <c r="F5">
-        <v>55.35697436933109</v>
+        <v>42.44677567198161</v>
       </c>
       <c r="G5">
-        <v>2.093373239817404</v>
+        <v>2.180423561641159</v>
       </c>
       <c r="H5">
-        <v>2.374520949779008</v>
+        <v>5.458531033824801</v>
       </c>
       <c r="I5">
-        <v>2.613255113535315</v>
+        <v>6.004805702151616</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>30.15634631627625</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.364205341814371</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.58127528054277</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.01274345810149</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -639,43 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.12034009970148</v>
+        <v>11.69842104761963</v>
       </c>
       <c r="C6">
-        <v>16.31276175098225</v>
+        <v>6.609561740489406</v>
       </c>
       <c r="D6">
-        <v>8.913715193426158</v>
+        <v>2.835572329261034</v>
       </c>
       <c r="E6">
-        <v>25.02928931015711</v>
+        <v>4.364908493440372</v>
       </c>
       <c r="F6">
-        <v>55.07122712887607</v>
+        <v>42.33688462702521</v>
       </c>
       <c r="G6">
-        <v>2.093843404499031</v>
+        <v>2.180697041474108</v>
       </c>
       <c r="H6">
-        <v>2.357148475066212</v>
+        <v>5.471984745253407</v>
       </c>
       <c r="I6">
-        <v>2.635588437125068</v>
+        <v>6.018646729108176</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>30.08392664653353</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.357360186807531</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.55756583648104</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.006843804708244</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -692,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.65169548959532</v>
+        <v>11.9314900825083</v>
       </c>
       <c r="C7">
-        <v>16.73292013436325</v>
+        <v>6.744409652811104</v>
       </c>
       <c r="D7">
-        <v>9.067926423508622</v>
+        <v>2.831642402907002</v>
       </c>
       <c r="E7">
-        <v>25.67736305216642</v>
+        <v>4.414769702693364</v>
       </c>
       <c r="F7">
-        <v>56.24481937174074</v>
+        <v>42.7571869860182</v>
       </c>
       <c r="G7">
-        <v>2.090896024981767</v>
+        <v>2.178951019006887</v>
       </c>
       <c r="H7">
-        <v>2.470075046960208</v>
+        <v>5.386156118661327</v>
       </c>
       <c r="I7">
-        <v>2.524493452909088</v>
+        <v>5.948522422438883</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>30.32638177332068</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.389631770621195</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.73529939519641</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.065972355405987</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -745,43 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.870143067299</v>
+        <v>12.91671504710697</v>
       </c>
       <c r="C8">
-        <v>18.46235242138411</v>
+        <v>7.311366517617008</v>
       </c>
       <c r="D8">
-        <v>9.765799130928215</v>
+        <v>2.816244277135253</v>
       </c>
       <c r="E8">
-        <v>28.39744764467337</v>
+        <v>4.627617864544329</v>
       </c>
       <c r="F8">
-        <v>61.38995501941691</v>
+        <v>44.65082214843456</v>
       </c>
       <c r="G8">
-        <v>2.078075537225312</v>
+        <v>2.171457430801771</v>
       </c>
       <c r="H8">
-        <v>2.957617360055809</v>
+        <v>5.018427156232992</v>
       </c>
       <c r="I8">
-        <v>2.908925381665187</v>
+        <v>5.643235566621291</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>31.43536396345024</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.531042705320422</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.49181017875025</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.317329817957503</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -798,43 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.77635781228673</v>
+        <v>14.68006849616475</v>
       </c>
       <c r="C9">
-        <v>21.51752086636726</v>
+        <v>8.474007024264541</v>
       </c>
       <c r="D9">
-        <v>11.09435833615976</v>
+        <v>2.784269415288499</v>
       </c>
       <c r="E9">
-        <v>33.24354161310295</v>
+        <v>5.020199770503932</v>
       </c>
       <c r="F9">
-        <v>70.89697344570428</v>
+        <v>48.28769271949385</v>
       </c>
       <c r="G9">
-        <v>2.053570185398751</v>
+        <v>2.15755498597489</v>
       </c>
       <c r="H9">
-        <v>3.877518438033591</v>
+        <v>4.33867414326725</v>
       </c>
       <c r="I9">
-        <v>3.818003966742009</v>
+        <v>5.07235578876985</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>33.59316987765453</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.79655743344706</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.87354760836024</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.783344631682027</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.36896984993525</v>
+        <v>15.86530003514611</v>
       </c>
       <c r="C10">
-        <v>23.60291155827736</v>
+        <v>9.310349645501557</v>
       </c>
       <c r="D10">
-        <v>11.73454473692673</v>
+        <v>2.736028435600074</v>
       </c>
       <c r="E10">
-        <v>35.62103610224544</v>
+        <v>5.236159723822857</v>
       </c>
       <c r="F10">
-        <v>76.20990935265392</v>
+        <v>50.28161935181188</v>
       </c>
       <c r="G10">
-        <v>2.036709757866656</v>
+        <v>2.148079680861431</v>
       </c>
       <c r="H10">
-        <v>4.482358605421413</v>
+        <v>3.894742576755437</v>
       </c>
       <c r="I10">
-        <v>4.449622519871673</v>
+        <v>4.691150357187998</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>34.71931693963445</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.933421385815</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.82735339307424</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.046905470679085</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -904,43 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.36121202343197</v>
+        <v>16.38635543494527</v>
       </c>
       <c r="C11">
-        <v>24.30366210427836</v>
+        <v>9.676590718450644</v>
       </c>
       <c r="D11">
-        <v>9.970562816033523</v>
+        <v>2.588019284301515</v>
       </c>
       <c r="E11">
-        <v>29.02521488677462</v>
+        <v>4.892605576882899</v>
       </c>
       <c r="F11">
-        <v>69.78476296936714</v>
+        <v>47.09154245500039</v>
       </c>
       <c r="G11">
-        <v>2.03570407727512</v>
+        <v>2.145830647932072</v>
       </c>
       <c r="H11">
-        <v>4.790747882991368</v>
+        <v>4.420771876451876</v>
       </c>
       <c r="I11">
-        <v>4.510909130059678</v>
+        <v>4.622439227624828</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>32.38144840936152</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.656797996917494</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.26223436433685</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.588198027854022</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -957,43 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.68585877720369</v>
+        <v>16.58581023987928</v>
       </c>
       <c r="C12">
-        <v>24.44128593523203</v>
+        <v>9.792599438368384</v>
       </c>
       <c r="D12">
-        <v>8.470649040072542</v>
+        <v>2.502879083692704</v>
       </c>
       <c r="E12">
-        <v>23.0426619106675</v>
+        <v>4.652302086743603</v>
       </c>
       <c r="F12">
-        <v>63.59460163662632</v>
+        <v>44.12263087860888</v>
       </c>
       <c r="G12">
-        <v>2.037548408334782</v>
+        <v>2.14568995630251</v>
       </c>
       <c r="H12">
-        <v>5.512775492837027</v>
+        <v>5.414797094529082</v>
       </c>
       <c r="I12">
-        <v>4.456295562001463</v>
+        <v>4.623512552394335</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>30.30462102123062</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.473472103992671</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.42541469978593</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.149165578410881</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.52803904234584</v>
+        <v>16.55280963159793</v>
       </c>
       <c r="C13">
-        <v>24.22003956114179</v>
+        <v>9.747369612454101</v>
       </c>
       <c r="D13">
-        <v>7.009883965657012</v>
+        <v>2.454389208616109</v>
       </c>
       <c r="E13">
-        <v>17.05336036085701</v>
+        <v>4.486180458054197</v>
       </c>
       <c r="F13">
-        <v>56.73539812628097</v>
+        <v>40.95727276003243</v>
       </c>
       <c r="G13">
-        <v>2.041798004963339</v>
+        <v>2.14723053230089</v>
       </c>
       <c r="H13">
-        <v>6.450362237943956</v>
+        <v>6.612678149569752</v>
       </c>
       <c r="I13">
-        <v>4.308155851271346</v>
+        <v>4.690919042812937</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>28.17414931630886</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.348538981817542</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.39920538214458</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.704742376659531</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1063,43 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.20074615630609</v>
+        <v>16.42376470649363</v>
       </c>
       <c r="C14">
-        <v>23.91840789243268</v>
+        <v>9.646729203769372</v>
       </c>
       <c r="D14">
-        <v>6.025607134096393</v>
+        <v>2.439934951051</v>
       </c>
       <c r="E14">
-        <v>12.91878041738623</v>
+        <v>4.423232164717355</v>
       </c>
       <c r="F14">
-        <v>51.49898527829699</v>
+        <v>38.6204379872861</v>
       </c>
       <c r="G14">
-        <v>2.045765259257151</v>
+        <v>2.149065682725448</v>
       </c>
       <c r="H14">
-        <v>7.201276089694248</v>
+        <v>7.519403798601782</v>
       </c>
       <c r="I14">
-        <v>4.16614545595082</v>
+        <v>4.769866402530083</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.64707876589592</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.29978856791401</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.29620629081158</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.396899608437651</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1116,43 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.01509405687257</v>
+        <v>16.34156733274705</v>
       </c>
       <c r="C15">
-        <v>23.77999269105106</v>
+        <v>9.593026343791106</v>
       </c>
       <c r="D15">
-        <v>5.778124340762592</v>
+        <v>2.441623015274382</v>
       </c>
       <c r="E15">
-        <v>11.90505057293832</v>
+        <v>4.409797318354996</v>
       </c>
       <c r="F15">
-        <v>49.98084492291337</v>
+        <v>37.97485523867606</v>
       </c>
       <c r="G15">
-        <v>2.047349627796285</v>
+        <v>2.14990684055509</v>
       </c>
       <c r="H15">
-        <v>7.37155626470092</v>
+        <v>7.741246734921904</v>
       </c>
       <c r="I15">
-        <v>4.109105430901421</v>
+        <v>4.807562457698273</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.2372553781788</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.289940996203997</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.23209173926189</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.321007033379163</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.98938299365462</v>
+        <v>15.86177091442983</v>
       </c>
       <c r="C16">
-        <v>23.00271204771266</v>
+        <v>9.265578286723333</v>
       </c>
       <c r="D16">
-        <v>5.728103560500506</v>
+        <v>2.468305247646937</v>
       </c>
       <c r="E16">
-        <v>11.57793924659197</v>
+        <v>4.33936816286698</v>
       </c>
       <c r="F16">
-        <v>48.56665406277664</v>
+        <v>37.59473978960753</v>
       </c>
       <c r="G16">
-        <v>2.053498711515744</v>
+        <v>2.153653133477035</v>
       </c>
       <c r="H16">
-        <v>7.055752869198356</v>
+        <v>7.635817553456825</v>
       </c>
       <c r="I16">
-        <v>3.877767251533557</v>
+        <v>4.960928992341297</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>26.09095728237554</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.250371776410458</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.84695967969189</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.290636157635515</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1222,43 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.36448092993919</v>
+        <v>15.55751725581734</v>
       </c>
       <c r="C17">
-        <v>22.55793443121987</v>
+        <v>9.066097204703141</v>
       </c>
       <c r="D17">
-        <v>6.19513540705</v>
+        <v>2.494853172694248</v>
       </c>
       <c r="E17">
-        <v>13.59355848671587</v>
+        <v>4.307417976404516</v>
       </c>
       <c r="F17">
-        <v>50.37157133274903</v>
+        <v>38.56266525047249</v>
       </c>
       <c r="G17">
-        <v>2.056209579269872</v>
+        <v>2.155567588138582</v>
       </c>
       <c r="H17">
-        <v>6.353811635908204</v>
+        <v>7.058902094856514</v>
       </c>
       <c r="I17">
-        <v>3.772518732282649</v>
+        <v>5.037685799035474</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>26.79038341206803</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.237981595582334</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.60329724743253</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.430383016454793</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.0326828153557</v>
+        <v>15.37659356468405</v>
       </c>
       <c r="C18">
-        <v>22.33313476896589</v>
+        <v>8.944847435976511</v>
       </c>
       <c r="D18">
-        <v>7.282784649532969</v>
+        <v>2.536513478781805</v>
       </c>
       <c r="E18">
-        <v>18.16992540045136</v>
+        <v>4.368576446488375</v>
       </c>
       <c r="F18">
-        <v>55.3707338003543</v>
+        <v>40.90562141893971</v>
       </c>
       <c r="G18">
-        <v>2.055887887705688</v>
+        <v>2.155998619689209</v>
       </c>
       <c r="H18">
-        <v>5.333293727927019</v>
+        <v>6.078375175361223</v>
       </c>
       <c r="I18">
-        <v>3.773529732633144</v>
+        <v>5.04550582585331</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>28.39148276123505</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.292212357210464</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.45303434845531</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.743332568645741</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1328,43 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.97345199471054</v>
+        <v>15.30437975571522</v>
       </c>
       <c r="C19">
-        <v>22.4033883500889</v>
+        <v>8.924065142825473</v>
       </c>
       <c r="D19">
-        <v>8.790375362995041</v>
+        <v>2.604682584188303</v>
       </c>
       <c r="E19">
-        <v>24.53208797344972</v>
+        <v>4.587609007125078</v>
       </c>
       <c r="F19">
-        <v>62.1806771869171</v>
+        <v>44.04355099618621</v>
       </c>
       <c r="G19">
-        <v>2.052752511625638</v>
+        <v>2.155150094174224</v>
       </c>
       <c r="H19">
-        <v>4.411514987705797</v>
+        <v>5.017281277315452</v>
       </c>
       <c r="I19">
-        <v>3.879578676368524</v>
+        <v>5.007293528901142</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>30.52262308121558</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.45351768032011</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.39511593204428</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.197452066077483</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1381,43 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.69820850587216</v>
+        <v>15.55374355830482</v>
       </c>
       <c r="C20">
-        <v>23.17917654727976</v>
+        <v>9.138163527627254</v>
       </c>
       <c r="D20">
-        <v>11.41151704201456</v>
+        <v>2.735696300706736</v>
       </c>
       <c r="E20">
-        <v>34.95363493126855</v>
+        <v>5.178898918030015</v>
       </c>
       <c r="F20">
-        <v>74.17869503357267</v>
+        <v>49.46244057788798</v>
       </c>
       <c r="G20">
-        <v>2.041462083656163</v>
+        <v>2.150672270860464</v>
       </c>
       <c r="H20">
-        <v>4.314225926561374</v>
+        <v>4.01632153637446</v>
       </c>
       <c r="I20">
-        <v>4.278525854025554</v>
+        <v>4.815359784751444</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>34.19349709607609</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.88312735467849</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.59172932276149</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.990882122606283</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.63458094084674</v>
+        <v>16.42689229349913</v>
       </c>
       <c r="C21">
-        <v>24.75784781552005</v>
+        <v>9.752370433861765</v>
       </c>
       <c r="D21">
-        <v>12.27927442675885</v>
+        <v>2.723812664641616</v>
       </c>
       <c r="E21">
-        <v>38.09980501401512</v>
+        <v>5.430673380479622</v>
       </c>
       <c r="F21">
-        <v>79.78419766314934</v>
+        <v>51.71655009559931</v>
       </c>
       <c r="G21">
-        <v>2.027249542232134</v>
+        <v>2.143149009681699</v>
       </c>
       <c r="H21">
-        <v>4.857352354950227</v>
+        <v>3.637488225404903</v>
       </c>
       <c r="I21">
-        <v>4.805519619189777</v>
+        <v>4.508476726085867</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>35.57194056249094</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.055922176436958</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.29615484362241</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.291704513692905</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.85232260185697</v>
+        <v>16.9809187090488</v>
       </c>
       <c r="C22">
-        <v>25.7093163221756</v>
+        <v>10.1258303625024</v>
       </c>
       <c r="D22">
-        <v>12.77195792536501</v>
+        <v>2.711990179802103</v>
       </c>
       <c r="E22">
-        <v>39.65220401541557</v>
+        <v>5.56202543876692</v>
       </c>
       <c r="F22">
-        <v>83.08140148289172</v>
+        <v>53.02980917425303</v>
       </c>
       <c r="G22">
-        <v>2.018208876805866</v>
+        <v>2.138374566330777</v>
       </c>
       <c r="H22">
-        <v>5.187829086509634</v>
+        <v>3.405617110969949</v>
       </c>
       <c r="I22">
-        <v>5.140100061090803</v>
+        <v>4.306570458737373</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>36.37523816588787</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.14949351397093</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.77175660826698</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.444047821225179</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.20893271165753</v>
+        <v>16.69011725154653</v>
       </c>
       <c r="C23">
-        <v>25.16305894123705</v>
+        <v>9.912272241396476</v>
       </c>
       <c r="D23">
-        <v>12.56410863771151</v>
+        <v>2.723273712979033</v>
       </c>
       <c r="E23">
-        <v>38.83252030482961</v>
+        <v>5.49158451614924</v>
       </c>
       <c r="F23">
-        <v>81.55397815487034</v>
+        <v>52.43572640253129</v>
       </c>
       <c r="G23">
-        <v>2.022918405131028</v>
+        <v>2.140869941255448</v>
       </c>
       <c r="H23">
-        <v>5.014325094539056</v>
+        <v>3.526717406530042</v>
       </c>
       <c r="I23">
-        <v>4.96347957896903</v>
+        <v>4.404140874932673</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>36.02959875029659</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.104613194043764</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.50124314832772</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.357288836268619</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.68185813993916</v>
+        <v>15.54253117482268</v>
       </c>
       <c r="C24">
-        <v>23.11238178875517</v>
+        <v>9.104729975350766</v>
       </c>
       <c r="D24">
-        <v>11.66976099974378</v>
+        <v>2.755663925040936</v>
       </c>
       <c r="E24">
-        <v>35.63223609375809</v>
+        <v>5.22071005483925</v>
       </c>
       <c r="F24">
-        <v>75.24053863113274</v>
+        <v>49.95695909254525</v>
       </c>
       <c r="G24">
-        <v>2.04088703992831</v>
+        <v>2.150538145328075</v>
       </c>
       <c r="H24">
-        <v>4.351378196554124</v>
+        <v>3.996775779812665</v>
       </c>
       <c r="I24">
-        <v>4.293550467567776</v>
+        <v>4.796810256545523</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>34.55417139379347</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.922981730955878</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.57276061628644</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.031877477012776</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1646,43 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.76275660477796</v>
+        <v>14.21732720277296</v>
       </c>
       <c r="C25">
-        <v>20.79094544270774</v>
+        <v>8.183437292718461</v>
       </c>
       <c r="D25">
-        <v>10.65831984704363</v>
+        <v>2.786094742153774</v>
       </c>
       <c r="E25">
-        <v>31.97679880725834</v>
+        <v>4.917512419200087</v>
       </c>
       <c r="F25">
-        <v>68.04404505137312</v>
+        <v>47.15954570897042</v>
       </c>
       <c r="G25">
-        <v>2.060308407478158</v>
+        <v>2.161302005950794</v>
       </c>
       <c r="H25">
-        <v>3.628166126820007</v>
+        <v>4.521639108364349</v>
       </c>
       <c r="I25">
-        <v>3.571692568677724</v>
+        <v>5.236524019207363</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>32.89271303371757</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.718929564374157</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.51709535426213</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.668833168056334</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_8_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.17606616307731</v>
+        <v>12.79288636637744</v>
       </c>
       <c r="C2">
-        <v>7.437949852043538</v>
+        <v>8.58419308869307</v>
       </c>
       <c r="D2">
-        <v>2.817955889696813</v>
+        <v>1.945451667345102</v>
       </c>
       <c r="E2">
-        <v>4.68286913085535</v>
+        <v>5.493797752528932</v>
       </c>
       <c r="F2">
-        <v>45.28983511499318</v>
+        <v>37.73501725564235</v>
       </c>
       <c r="G2">
-        <v>2.169427264939894</v>
+        <v>11.934385670608</v>
       </c>
       <c r="H2">
-        <v>4.918938535312271</v>
+        <v>4.040733478354882</v>
       </c>
       <c r="I2">
-        <v>5.552781683948353</v>
+        <v>4.632965268685287</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>31.83522731462135</v>
+        <v>25.88495988576581</v>
       </c>
       <c r="L2">
-        <v>5.574403303264908</v>
+        <v>19.73909006291151</v>
       </c>
       <c r="M2">
-        <v>11.68515567508415</v>
+        <v>18.75259355997445</v>
       </c>
       <c r="N2">
-        <v>6.37663000761913</v>
+        <v>5.54204968914109</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.60298092798891</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.004654383744079</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.42160090677149</v>
+        <v>12.00568234571022</v>
       </c>
       <c r="C3">
-        <v>7.000246700013244</v>
+        <v>7.970357170570258</v>
       </c>
       <c r="D3">
-        <v>2.830154488745834</v>
+        <v>1.887657000024569</v>
       </c>
       <c r="E3">
-        <v>4.518593133140382</v>
+        <v>5.371316512721344</v>
       </c>
       <c r="F3">
-        <v>43.80874731094075</v>
+        <v>36.72354521429489</v>
       </c>
       <c r="G3">
-        <v>2.175217529732933</v>
+        <v>12.62901708070423</v>
       </c>
       <c r="H3">
-        <v>5.202794239097274</v>
+        <v>4.269679627595672</v>
       </c>
       <c r="I3">
-        <v>5.789279069321565</v>
+        <v>4.812520755490374</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>30.96407826341639</v>
+        <v>25.4005823608919</v>
       </c>
       <c r="L3">
-        <v>5.464644338715519</v>
+        <v>19.50604059016989</v>
       </c>
       <c r="M3">
-        <v>11.10211760429731</v>
+        <v>18.28651642578707</v>
       </c>
       <c r="N3">
-        <v>6.182204476008822</v>
+        <v>5.473079141493111</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.93678235638211</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.789800063158722</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.93709125354466</v>
+        <v>11.49570009153057</v>
       </c>
       <c r="C4">
-        <v>6.726843973495944</v>
+        <v>7.573986370873423</v>
       </c>
       <c r="D4">
-        <v>2.836423294488264</v>
+        <v>1.851710963163805</v>
       </c>
       <c r="E4">
-        <v>4.414734246523651</v>
+        <v>5.294447171218437</v>
       </c>
       <c r="F4">
-        <v>42.86907852103264</v>
+        <v>36.08002333364458</v>
       </c>
       <c r="G4">
-        <v>2.178886047003021</v>
+        <v>13.06979542369936</v>
       </c>
       <c r="H4">
-        <v>5.382947573749769</v>
+        <v>4.415275059009195</v>
       </c>
       <c r="I4">
-        <v>5.939775645621434</v>
+        <v>4.927310304510234</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>30.41073478824639</v>
+        <v>25.09075181893457</v>
       </c>
       <c r="L4">
-        <v>5.394742859896044</v>
+        <v>19.34895677842277</v>
       </c>
       <c r="M4">
-        <v>10.73298411230097</v>
+        <v>18.00398567917823</v>
       </c>
       <c r="N4">
-        <v>6.060890055636256</v>
+        <v>5.428997431929992</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.50898759355048</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.65575564196473</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.73358397154166</v>
+        <v>11.280431478377</v>
       </c>
       <c r="C5">
-        <v>6.620213421354597</v>
+        <v>7.41228119477629</v>
       </c>
       <c r="D5">
-        <v>2.837217295429793</v>
+        <v>1.838761371291748</v>
       </c>
       <c r="E5">
-        <v>4.371847782255514</v>
+        <v>5.262904319075954</v>
       </c>
       <c r="F5">
-        <v>42.44677567198161</v>
+        <v>35.78628482367759</v>
       </c>
       <c r="G5">
-        <v>2.180423561641159</v>
+        <v>13.25456851596905</v>
       </c>
       <c r="H5">
-        <v>5.458531033824801</v>
+        <v>4.476385426851541</v>
       </c>
       <c r="I5">
-        <v>6.004805702151616</v>
+        <v>4.97791200135167</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>30.15634631627625</v>
+        <v>24.9423515221739</v>
       </c>
       <c r="L5">
-        <v>5.364205341814371</v>
+        <v>19.26539327352332</v>
       </c>
       <c r="M5">
-        <v>10.58127528054277</v>
+        <v>17.87718087147912</v>
       </c>
       <c r="N5">
-        <v>6.01274345810149</v>
+        <v>5.409635687486809</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.33112910148679</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.602064340125295</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.69842104761963</v>
+        <v>11.2432885371044</v>
       </c>
       <c r="C6">
-        <v>6.609561740489406</v>
+        <v>7.390930578811099</v>
       </c>
       <c r="D6">
-        <v>2.835572329261034</v>
+        <v>1.838847154412164</v>
       </c>
       <c r="E6">
-        <v>4.364908493440372</v>
+        <v>5.257876737145384</v>
       </c>
       <c r="F6">
-        <v>42.33688462702521</v>
+        <v>35.70531267177243</v>
       </c>
       <c r="G6">
-        <v>2.180697041474108</v>
+        <v>13.2873029386545</v>
       </c>
       <c r="H6">
-        <v>5.471984745253407</v>
+        <v>4.48721693991562</v>
       </c>
       <c r="I6">
-        <v>6.018646729108176</v>
+        <v>4.989779869867295</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>30.08392664653353</v>
+        <v>24.89418828588871</v>
       </c>
       <c r="L6">
-        <v>5.357360186807531</v>
+        <v>19.23174347502433</v>
       </c>
       <c r="M6">
-        <v>10.55756583648104</v>
+        <v>17.84049144610954</v>
       </c>
       <c r="N6">
-        <v>6.006843804708244</v>
+        <v>5.40522174413925</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.30261315005044</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.594844277595207</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.9314900825083</v>
+        <v>11.50033619560569</v>
       </c>
       <c r="C7">
-        <v>6.744409652811104</v>
+        <v>7.540425113313533</v>
       </c>
       <c r="D7">
-        <v>2.831642402907002</v>
+        <v>1.873323484347021</v>
       </c>
       <c r="E7">
-        <v>4.414769702693364</v>
+        <v>5.303263061665949</v>
       </c>
       <c r="F7">
-        <v>42.7571869860182</v>
+        <v>35.83928670824471</v>
       </c>
       <c r="G7">
-        <v>2.178951019006887</v>
+        <v>13.12277401008058</v>
       </c>
       <c r="H7">
-        <v>5.386156118661327</v>
+        <v>4.420481586619704</v>
       </c>
       <c r="I7">
-        <v>5.948522422438883</v>
+        <v>4.939526873940676</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>30.32638177332068</v>
+        <v>24.9273915816405</v>
       </c>
       <c r="L7">
-        <v>5.389631770621195</v>
+        <v>19.2139795614605</v>
       </c>
       <c r="M7">
-        <v>10.73529939519641</v>
+        <v>17.89216096434444</v>
       </c>
       <c r="N7">
-        <v>6.065972355405987</v>
+        <v>5.422487343514272</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.50142232770453</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.658962799126115</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.91671504710697</v>
+        <v>12.55464862475943</v>
       </c>
       <c r="C8">
-        <v>7.311366517617008</v>
+        <v>8.252347809011171</v>
       </c>
       <c r="D8">
-        <v>2.816244277135253</v>
+        <v>1.990153690276293</v>
       </c>
       <c r="E8">
-        <v>4.627617864544329</v>
+        <v>5.480777899927639</v>
       </c>
       <c r="F8">
-        <v>44.65082214843456</v>
+        <v>36.80256550757513</v>
       </c>
       <c r="G8">
-        <v>2.171457430801771</v>
+        <v>12.36555158562</v>
       </c>
       <c r="H8">
-        <v>5.018427156232992</v>
+        <v>4.129459966438572</v>
       </c>
       <c r="I8">
-        <v>5.643235566621291</v>
+        <v>4.713417366008351</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>31.43536396345024</v>
+        <v>25.32599225244094</v>
       </c>
       <c r="L8">
-        <v>5.531042705320422</v>
+        <v>19.3433206468402</v>
       </c>
       <c r="M8">
-        <v>11.49181017875025</v>
+        <v>18.31239591681602</v>
       </c>
       <c r="N8">
-        <v>6.317329817957503</v>
+        <v>5.504787851305482</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.35430955645153</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.934654574820376</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.68006849616475</v>
+        <v>14.37589037494747</v>
       </c>
       <c r="C9">
-        <v>8.474007024264541</v>
+        <v>9.642173057388433</v>
       </c>
       <c r="D9">
-        <v>2.784269415288499</v>
+        <v>2.140819291262033</v>
       </c>
       <c r="E9">
-        <v>5.020199770503932</v>
+        <v>5.782075985575477</v>
       </c>
       <c r="F9">
-        <v>48.28769271949385</v>
+        <v>39.20292345163681</v>
       </c>
       <c r="G9">
-        <v>2.15755498597489</v>
+        <v>10.75120197202657</v>
       </c>
       <c r="H9">
-        <v>4.33867414326725</v>
+        <v>3.585130875357956</v>
       </c>
       <c r="I9">
-        <v>5.07235578876985</v>
+        <v>4.281578689655002</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>33.59316987765453</v>
+        <v>26.47222118333259</v>
       </c>
       <c r="L9">
-        <v>5.79655743344706</v>
+        <v>19.86906771469384</v>
       </c>
       <c r="M9">
-        <v>12.87354760836024</v>
+        <v>19.47844916967559</v>
       </c>
       <c r="N9">
-        <v>6.783344631682027</v>
+        <v>5.66906024266143</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.03105505370535</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.450715855055205</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.86530003514611</v>
+        <v>15.62885912063821</v>
       </c>
       <c r="C10">
-        <v>9.310349645501557</v>
+        <v>10.35646634048054</v>
       </c>
       <c r="D10">
-        <v>2.736028435600074</v>
+        <v>2.361711939408666</v>
       </c>
       <c r="E10">
-        <v>5.236159723822857</v>
+        <v>5.98474816866355</v>
       </c>
       <c r="F10">
-        <v>50.28161935181188</v>
+        <v>39.71396161395545</v>
       </c>
       <c r="G10">
-        <v>2.148079680861431</v>
+        <v>10.30435446463019</v>
       </c>
       <c r="H10">
-        <v>3.894742576755437</v>
+        <v>3.24878471633547</v>
       </c>
       <c r="I10">
-        <v>4.691150357187998</v>
+        <v>4.010062759475512</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>34.71931693963445</v>
+        <v>26.50201978211521</v>
       </c>
       <c r="L10">
-        <v>5.933421385815</v>
+        <v>19.61979480094517</v>
       </c>
       <c r="M10">
-        <v>13.82735339307424</v>
+        <v>19.77378143471585</v>
       </c>
       <c r="N10">
-        <v>7.046905470679085</v>
+        <v>5.734669953325729</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.11784059366795</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.737410393429696</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.38635543494527</v>
+        <v>16.27280115418547</v>
       </c>
       <c r="C11">
-        <v>9.676590718450644</v>
+        <v>10.19482253651183</v>
       </c>
       <c r="D11">
-        <v>2.588019284301515</v>
+        <v>2.886819078318978</v>
       </c>
       <c r="E11">
-        <v>4.892605576882899</v>
+        <v>5.698995798259531</v>
       </c>
       <c r="F11">
-        <v>47.09154245500039</v>
+        <v>35.64039921254187</v>
       </c>
       <c r="G11">
-        <v>2.145830647932072</v>
+        <v>12.33739302533789</v>
       </c>
       <c r="H11">
-        <v>4.420771876451876</v>
+        <v>3.898364301725939</v>
       </c>
       <c r="I11">
-        <v>4.622439227624828</v>
+        <v>3.982824199740005</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32.38144840936152</v>
+        <v>23.75301687520015</v>
       </c>
       <c r="L11">
-        <v>5.656797996917494</v>
+        <v>17.42681650672974</v>
       </c>
       <c r="M11">
-        <v>14.26223436433685</v>
+        <v>17.81904501249852</v>
       </c>
       <c r="N11">
-        <v>6.588198027854022</v>
+        <v>5.529673387835548</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.46573338244319</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.218687710588114</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.58581023987928</v>
+        <v>16.53760904830555</v>
       </c>
       <c r="C12">
-        <v>9.792599438368384</v>
+        <v>10.01791808532749</v>
       </c>
       <c r="D12">
-        <v>2.502879083692704</v>
+        <v>3.150351346728665</v>
       </c>
       <c r="E12">
-        <v>4.652302086743603</v>
+        <v>5.445600004383721</v>
       </c>
       <c r="F12">
-        <v>44.12263087860888</v>
+        <v>32.70774711922817</v>
       </c>
       <c r="G12">
-        <v>2.14568995630251</v>
+        <v>13.66614546606836</v>
       </c>
       <c r="H12">
-        <v>5.414797094529082</v>
+        <v>4.994148612625188</v>
       </c>
       <c r="I12">
-        <v>4.623512552394335</v>
+        <v>3.986557205925609</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>30.30462102123062</v>
+        <v>21.89526111433056</v>
       </c>
       <c r="L12">
-        <v>5.473472103992671</v>
+        <v>16.00505592609858</v>
       </c>
       <c r="M12">
-        <v>14.42541469978593</v>
+        <v>16.4381206256282</v>
       </c>
       <c r="N12">
-        <v>6.149165578410881</v>
+        <v>5.430170131402426</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.56390120338139</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.727408801048503</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.55280963159793</v>
+        <v>16.5136640372083</v>
       </c>
       <c r="C13">
-        <v>9.747369612454101</v>
+        <v>9.913782067337664</v>
       </c>
       <c r="D13">
-        <v>2.454389208616109</v>
+        <v>3.17476655825919</v>
       </c>
       <c r="E13">
-        <v>4.486180458054197</v>
+        <v>5.218071281948704</v>
       </c>
       <c r="F13">
-        <v>40.95727276003243</v>
+        <v>30.58723958139871</v>
       </c>
       <c r="G13">
-        <v>2.14723053230089</v>
+        <v>13.46208307885512</v>
       </c>
       <c r="H13">
-        <v>6.612678149569752</v>
+        <v>6.249447702718109</v>
       </c>
       <c r="I13">
-        <v>4.690919042812937</v>
+        <v>4.027899751388433</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>28.17414931630886</v>
+        <v>20.65048473383974</v>
       </c>
       <c r="L13">
-        <v>5.348538981817542</v>
+        <v>15.09119984230845</v>
       </c>
       <c r="M13">
-        <v>14.39920538214458</v>
+        <v>15.46846886757632</v>
       </c>
       <c r="N13">
-        <v>5.704742376659531</v>
+        <v>5.398043960443404</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.50019200407372</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.232428427463561</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.42376470649363</v>
+        <v>16.36622107016453</v>
       </c>
       <c r="C14">
-        <v>9.646729203769372</v>
+        <v>9.871764631102989</v>
       </c>
       <c r="D14">
-        <v>2.439934951051</v>
+        <v>3.091905668871266</v>
       </c>
       <c r="E14">
-        <v>4.423232164717355</v>
+        <v>5.106151441251523</v>
       </c>
       <c r="F14">
-        <v>38.6204379872861</v>
+        <v>29.40765142142685</v>
       </c>
       <c r="G14">
-        <v>2.149065682725448</v>
+        <v>12.68169269774793</v>
       </c>
       <c r="H14">
-        <v>7.519403798601782</v>
+        <v>7.17972823065246</v>
       </c>
       <c r="I14">
-        <v>4.769866402530083</v>
+        <v>4.077327016266716</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.64707876589592</v>
+        <v>20.00913100501887</v>
       </c>
       <c r="L14">
-        <v>5.29978856791401</v>
+        <v>14.63660805984282</v>
       </c>
       <c r="M14">
-        <v>14.29620629081158</v>
+        <v>14.94756825399297</v>
       </c>
       <c r="N14">
-        <v>5.396899608437651</v>
+        <v>5.410781809434429</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.38128716993434</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.889449652286562</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.34156733274705</v>
+        <v>16.26867630751519</v>
       </c>
       <c r="C15">
-        <v>9.593026343791106</v>
+        <v>9.875039712020238</v>
       </c>
       <c r="D15">
-        <v>2.441623015274382</v>
+        <v>3.032800407731104</v>
       </c>
       <c r="E15">
-        <v>4.409797318354996</v>
+        <v>5.083733018253401</v>
       </c>
       <c r="F15">
-        <v>37.97485523867606</v>
+        <v>29.22632680661578</v>
       </c>
       <c r="G15">
-        <v>2.14990684055509</v>
+        <v>12.25834427106488</v>
       </c>
       <c r="H15">
-        <v>7.741246734921904</v>
+        <v>7.402035738623612</v>
       </c>
       <c r="I15">
-        <v>4.807562457698273</v>
+        <v>4.102731727675317</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.2372553781788</v>
+        <v>19.92804988619062</v>
       </c>
       <c r="L15">
-        <v>5.289940996203997</v>
+        <v>14.58641691419839</v>
       </c>
       <c r="M15">
-        <v>14.23209173926189</v>
+        <v>14.87168006270763</v>
       </c>
       <c r="N15">
-        <v>5.321007033379163</v>
+        <v>5.416390381781657</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.31635821987934</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.805038447769468</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.86177091442983</v>
+        <v>15.69448759722319</v>
       </c>
       <c r="C16">
-        <v>9.265578286723333</v>
+        <v>9.91208278004957</v>
       </c>
       <c r="D16">
-        <v>2.468305247646937</v>
+        <v>2.672393142720306</v>
       </c>
       <c r="E16">
-        <v>4.33936816286698</v>
+        <v>5.040224486758917</v>
       </c>
       <c r="F16">
-        <v>37.59473978960753</v>
+        <v>30.32203585980274</v>
       </c>
       <c r="G16">
-        <v>2.153653133477035</v>
+        <v>10.75477233333944</v>
       </c>
       <c r="H16">
-        <v>7.635817553456825</v>
+        <v>7.247545178369211</v>
       </c>
       <c r="I16">
-        <v>4.960928992341297</v>
+        <v>4.201970296861433</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>26.09095728237554</v>
+        <v>20.69517335829056</v>
       </c>
       <c r="L16">
-        <v>5.250371776410458</v>
+        <v>15.21472493956425</v>
       </c>
       <c r="M16">
-        <v>13.84695967969189</v>
+        <v>15.38886385155335</v>
       </c>
       <c r="N16">
-        <v>5.290636157635515</v>
+        <v>5.391642244365509</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.95028701932049</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.777864528209203</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.55751725581734</v>
+        <v>15.33810212039541</v>
       </c>
       <c r="C17">
-        <v>9.066097204703141</v>
+        <v>9.910814060328313</v>
       </c>
       <c r="D17">
-        <v>2.494853172694248</v>
+        <v>2.485132027628947</v>
       </c>
       <c r="E17">
-        <v>4.307417976404516</v>
+        <v>5.037687751966009</v>
       </c>
       <c r="F17">
-        <v>38.56266525047249</v>
+        <v>31.66278046018299</v>
       </c>
       <c r="G17">
-        <v>2.155567588138582</v>
+        <v>10.4784780191136</v>
       </c>
       <c r="H17">
-        <v>7.058902094856514</v>
+        <v>6.612951417248721</v>
       </c>
       <c r="I17">
-        <v>5.037685799035474</v>
+        <v>4.254111832361902</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>26.79038341206803</v>
+        <v>21.56439948249666</v>
       </c>
       <c r="L17">
-        <v>5.237981595582334</v>
+        <v>15.9140254720196</v>
       </c>
       <c r="M17">
-        <v>13.60329724743253</v>
+        <v>16.00040794557116</v>
       </c>
       <c r="N17">
-        <v>5.430383016454793</v>
+        <v>5.363629240779065</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.71764990924475</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.938345962880887</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.37659356468405</v>
+        <v>15.12144661290103</v>
       </c>
       <c r="C18">
-        <v>8.944847435976511</v>
+        <v>9.940801571743588</v>
       </c>
       <c r="D18">
-        <v>2.536513478781805</v>
+        <v>2.346724897428825</v>
       </c>
       <c r="E18">
-        <v>4.368576446488375</v>
+        <v>5.115712124350705</v>
       </c>
       <c r="F18">
-        <v>40.90562141893971</v>
+        <v>33.70588003697135</v>
       </c>
       <c r="G18">
-        <v>2.155998619689209</v>
+        <v>10.3995561078669</v>
       </c>
       <c r="H18">
-        <v>6.078375175361223</v>
+        <v>5.550807238533666</v>
       </c>
       <c r="I18">
-        <v>5.04550582585331</v>
+        <v>4.256480628108347</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>28.39148276123505</v>
+        <v>22.84866369422425</v>
       </c>
       <c r="L18">
-        <v>5.292212357210464</v>
+        <v>16.92487757320534</v>
       </c>
       <c r="M18">
-        <v>13.45303434845531</v>
+        <v>16.93360033665638</v>
       </c>
       <c r="N18">
-        <v>5.743332568645741</v>
+        <v>5.368384452942361</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.594106634915</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.291402301262663</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.30437975571522</v>
+        <v>15.02439028802205</v>
       </c>
       <c r="C19">
-        <v>8.924065142825473</v>
+        <v>10.04750690059861</v>
       </c>
       <c r="D19">
-        <v>2.604682584188303</v>
+        <v>2.251193685234699</v>
       </c>
       <c r="E19">
-        <v>4.587609007125078</v>
+        <v>5.330957740074965</v>
       </c>
       <c r="F19">
-        <v>44.04355099618621</v>
+        <v>36.15563361984784</v>
       </c>
       <c r="G19">
-        <v>2.155150094174224</v>
+        <v>10.28644901178033</v>
       </c>
       <c r="H19">
-        <v>5.017281277315452</v>
+        <v>4.388078076054091</v>
       </c>
       <c r="I19">
-        <v>5.007293528901142</v>
+        <v>4.23208954100133</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>30.52262308121558</v>
+        <v>24.37859959668653</v>
       </c>
       <c r="L19">
-        <v>5.45351768032011</v>
+        <v>18.11325647182129</v>
       </c>
       <c r="M19">
-        <v>13.39511593204428</v>
+        <v>18.06239203288882</v>
       </c>
       <c r="N19">
-        <v>6.197452066077483</v>
+        <v>5.449788261675038</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.58091232086412</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.797449222137482</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.55374355830482</v>
+        <v>15.27503258883138</v>
       </c>
       <c r="C20">
-        <v>9.138163527627254</v>
+        <v>10.33590954906911</v>
       </c>
       <c r="D20">
-        <v>2.735696300706736</v>
+        <v>2.258843926003923</v>
       </c>
       <c r="E20">
-        <v>5.178898918030015</v>
+        <v>5.902997210660081</v>
       </c>
       <c r="F20">
-        <v>49.46244057788798</v>
+        <v>39.80343777803304</v>
       </c>
       <c r="G20">
-        <v>2.150672270860464</v>
+        <v>10.01623093406207</v>
       </c>
       <c r="H20">
-        <v>4.01632153637446</v>
+        <v>3.331729889556697</v>
       </c>
       <c r="I20">
-        <v>4.815359784751444</v>
+        <v>4.102004988429512</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>34.19349709607609</v>
+        <v>26.62295305838725</v>
       </c>
       <c r="L20">
-        <v>5.88312735467849</v>
+        <v>19.78223963923258</v>
       </c>
       <c r="M20">
-        <v>13.59172932276149</v>
+        <v>19.7918034781602</v>
       </c>
       <c r="N20">
-        <v>6.990882122606283</v>
+        <v>5.717373799571056</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.87386218063359</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.674665132739873</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.42689229349913</v>
+        <v>16.33439590539766</v>
       </c>
       <c r="C21">
-        <v>9.752370433861765</v>
+        <v>10.23648372351444</v>
       </c>
       <c r="D21">
-        <v>2.723812664641616</v>
+        <v>2.943851562341803</v>
       </c>
       <c r="E21">
-        <v>5.430673380479622</v>
+        <v>6.30171165437434</v>
       </c>
       <c r="F21">
-        <v>51.71655009559931</v>
+        <v>38.37844065985796</v>
       </c>
       <c r="G21">
-        <v>2.143149009681699</v>
+        <v>13.33869919239486</v>
       </c>
       <c r="H21">
-        <v>3.637488225404903</v>
+        <v>3.079536793478631</v>
       </c>
       <c r="I21">
-        <v>4.508476726085867</v>
+        <v>3.920411496213901</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.57194056249094</v>
+        <v>25.44218038274787</v>
       </c>
       <c r="L21">
-        <v>6.055922176436958</v>
+        <v>18.69124637817369</v>
       </c>
       <c r="M21">
-        <v>14.29615484362241</v>
+        <v>19.11025156387425</v>
       </c>
       <c r="N21">
-        <v>7.291704513692905</v>
+        <v>5.766697840939669</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.53600654780083</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.992312677169725</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.9809187090488</v>
+        <v>17.01542100225216</v>
       </c>
       <c r="C22">
-        <v>10.1258303625024</v>
+        <v>10.121841243193</v>
       </c>
       <c r="D22">
-        <v>2.711990179802103</v>
+        <v>3.448983527786571</v>
       </c>
       <c r="E22">
-        <v>5.56202543876692</v>
+        <v>6.551686509145305</v>
       </c>
       <c r="F22">
-        <v>53.02980917425303</v>
+        <v>37.22124644884545</v>
       </c>
       <c r="G22">
-        <v>2.138374566330777</v>
+        <v>17.15660190465304</v>
       </c>
       <c r="H22">
-        <v>3.405617110969949</v>
+        <v>2.927551774440834</v>
       </c>
       <c r="I22">
-        <v>4.306570458737373</v>
+        <v>3.794789600461887</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>36.37523816588787</v>
+        <v>24.54028157092128</v>
       </c>
       <c r="L22">
-        <v>6.14949351397093</v>
+        <v>17.90083540395311</v>
       </c>
       <c r="M22">
-        <v>14.77175660826698</v>
+        <v>18.55445929696562</v>
       </c>
       <c r="N22">
-        <v>7.444047821225179</v>
+        <v>5.784916600089629</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.93766454839458</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.152047600095013</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.69011725154653</v>
+        <v>16.64104747733126</v>
       </c>
       <c r="C23">
-        <v>9.912272241396476</v>
+        <v>10.25584920577646</v>
       </c>
       <c r="D23">
-        <v>2.723273712979033</v>
+        <v>3.088523077970178</v>
       </c>
       <c r="E23">
-        <v>5.49158451614924</v>
+        <v>6.393297816406328</v>
       </c>
       <c r="F23">
-        <v>52.43572640253129</v>
+        <v>38.2433322671594</v>
       </c>
       <c r="G23">
-        <v>2.140869941255448</v>
+        <v>14.37130066227359</v>
       </c>
       <c r="H23">
-        <v>3.526717406530042</v>
+        <v>3.002429006471639</v>
       </c>
       <c r="I23">
-        <v>4.404140874932673</v>
+        <v>3.846058258158701</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>36.02959875029659</v>
+        <v>25.29249567625966</v>
       </c>
       <c r="L23">
-        <v>6.104613194043764</v>
+        <v>18.52272947951247</v>
       </c>
       <c r="M23">
-        <v>14.50124314832772</v>
+        <v>19.05895229162041</v>
       </c>
       <c r="N23">
-        <v>7.357288836268619</v>
+        <v>5.784270501786249</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.74175540002196</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.063977986939651</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.54253117482268</v>
+        <v>15.25954918791021</v>
       </c>
       <c r="C24">
-        <v>9.104729975350766</v>
+        <v>10.32417354688216</v>
       </c>
       <c r="D24">
-        <v>2.755663925040936</v>
+        <v>2.241450241391024</v>
       </c>
       <c r="E24">
-        <v>5.22071005483925</v>
+        <v>5.941806356299732</v>
       </c>
       <c r="F24">
-        <v>49.95695909254525</v>
+        <v>40.21322630205966</v>
       </c>
       <c r="G24">
-        <v>2.150538145328075</v>
+        <v>9.986547863545891</v>
       </c>
       <c r="H24">
-        <v>3.996775779812665</v>
+        <v>3.313583613673468</v>
       </c>
       <c r="I24">
-        <v>4.796810256545523</v>
+        <v>4.081673626406299</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>34.55417139379347</v>
+        <v>26.9046242658241</v>
       </c>
       <c r="L24">
-        <v>5.922981730955878</v>
+        <v>20.00176249252042</v>
       </c>
       <c r="M24">
-        <v>13.57276061628644</v>
+        <v>19.99824384365719</v>
       </c>
       <c r="N24">
-        <v>7.031877477012776</v>
+        <v>5.745199946165466</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.86267902943722</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.722718485321412</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.21732720277296</v>
+        <v>13.88995305255489</v>
       </c>
       <c r="C25">
-        <v>8.183437292718461</v>
+        <v>9.360694203580447</v>
       </c>
       <c r="D25">
-        <v>2.786094742153774</v>
+        <v>2.088709061364816</v>
       </c>
       <c r="E25">
-        <v>4.917512419200087</v>
+        <v>5.691493162336756</v>
       </c>
       <c r="F25">
-        <v>47.15954570897042</v>
+        <v>38.62952444481341</v>
       </c>
       <c r="G25">
-        <v>2.161302005950794</v>
+        <v>11.08346126854322</v>
       </c>
       <c r="H25">
-        <v>4.521639108364349</v>
+        <v>3.727404466380432</v>
       </c>
       <c r="I25">
-        <v>5.236524019207363</v>
+        <v>4.407506660875575</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>32.89271303371757</v>
+        <v>26.19792088424717</v>
       </c>
       <c r="L25">
-        <v>5.718929564374157</v>
+        <v>19.75780591344781</v>
       </c>
       <c r="M25">
-        <v>12.51709535426213</v>
+        <v>19.1802044672478</v>
       </c>
       <c r="N25">
-        <v>6.668833168056334</v>
+        <v>5.624855974263648</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.60376370932113</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.322227984346682</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
